--- a/playwright/report/test-mapping.xlsx
+++ b/playwright/report/test-mapping.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\testautomation\playwright\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\test-automation\playwright\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B4D4B-14AB-4645-924A-EDD26B326407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE2C04-9601-4266-862C-25F9551DC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Stores" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>CORE ID</t>
   </si>
@@ -177,15 +178,9 @@
     <t>Impersonificate</t>
   </si>
   <si>
-    <t>Door</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>ID022</t>
   </si>
   <si>
@@ -202,6 +197,57 @@
   </si>
   <si>
     <t>Spare parts - Complete flow</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>myl-it</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>it-IT</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>myl-us</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>storeIdentifier</t>
+  </si>
+  <si>
+    <t>storeCode</t>
+  </si>
+  <si>
+    <t>storeSlug</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>0001001081</t>
+  </si>
+  <si>
+    <t>0001026276</t>
   </si>
 </sst>
 </file>
@@ -273,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -282,11 +328,40 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -316,6 +391,20 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4937BB77-D2B0-4837-A2EF-1D0D4B479832}" name="Tabella1" displayName="Tabella1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{4937BB77-D2B0-4837-A2EF-1D0D4B479832}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{821DD2A9-154A-42DC-BB47-D0020A87303E}" name="Country Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75ED179E-E6C5-4E07-A510-6D7452CD6F64}" name="storeIdentifier" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{792A0A35-EEA5-45CD-8ED4-A23D6C349508}" name="storeCode" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0EB30D7A-0709-4C7D-8FFA-BD4FAA3F9C9A}" name="storeSlug" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{99795E13-A59E-4BA0-9E3B-A6FF068A1AC2}" name="locale" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,21 +670,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -611,17 +701,14 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -631,8 +718,17 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -642,8 +738,17 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -653,8 +758,17 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -664,8 +778,17 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -675,8 +798,17 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -686,8 +818,17 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -697,8 +838,17 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -708,8 +858,17 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -719,8 +878,17 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -730,8 +898,17 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -741,8 +918,17 @@
       <c r="D12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -752,8 +938,17 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -763,8 +958,17 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -775,32 +979,152 @@
         <f>[1]NRT!$D$68</f>
         <v>Check catalogue sorting</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attenzione" error="Il valore dell'impersonificazione può essere Y o N" sqref="E2:E1048576" xr:uid="{4FB0E54F-D89C-4B7D-8575-36821A8E0BBA}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCFFFC4C-7C99-4C72-801D-FD671DCA64DA}">
+          <x14:formula1>
+            <xm:f>Stores!B1:B150</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4F7074-6917-4CA5-8636-65D90FA4BF30}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10156</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10152</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/playwright/report/test-mapping.xlsx
+++ b/playwright/report/test-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\test-automation\playwright\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\Blue Reply\myel-copilot\playwright\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE2C04-9601-4266-862C-25F9551DC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32F8E2-A004-408F-BC2D-7F15BC527F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -327,7 +327,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,8 +374,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="NRT"/>
     </sheetNames>
@@ -394,14 +396,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4937BB77-D2B0-4837-A2EF-1D0D4B479832}" name="Tabella1" displayName="Tabella1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4937BB77-D2B0-4837-A2EF-1D0D4B479832}" name="Tabella1" displayName="Tabella1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E1048576" xr:uid="{4937BB77-D2B0-4837-A2EF-1D0D4B479832}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{821DD2A9-154A-42DC-BB47-D0020A87303E}" name="Country Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{75ED179E-E6C5-4E07-A510-6D7452CD6F64}" name="storeIdentifier" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{792A0A35-EEA5-45CD-8ED4-A23D6C349508}" name="storeCode" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0EB30D7A-0709-4C7D-8FFA-BD4FAA3F9C9A}" name="storeSlug" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{99795E13-A59E-4BA0-9E3B-A6FF068A1AC2}" name="locale" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{821DD2A9-154A-42DC-BB47-D0020A87303E}" name="Country Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{75ED179E-E6C5-4E07-A510-6D7452CD6F64}" name="storeIdentifier" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{792A0A35-EEA5-45CD-8ED4-A23D6C349508}" name="storeCode" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0EB30D7A-0709-4C7D-8FFA-BD4FAA3F9C9A}" name="storeSlug" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{99795E13-A59E-4BA0-9E3B-A6FF068A1AC2}" name="locale" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,19 +675,19 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="6"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,14 +703,14 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -718,17 +720,17 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -738,17 +740,17 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -758,17 +760,17 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -778,17 +780,17 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -798,17 +800,17 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -818,17 +820,17 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -838,17 +840,17 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -858,17 +860,17 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -878,17 +880,17 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -898,17 +900,17 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -918,17 +920,17 @@
       <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -938,17 +940,17 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -958,17 +960,17 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -979,17 +981,17 @@
         <f>[1]NRT!$D$68</f>
         <v>Check catalogue sorting</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -999,17 +1001,17 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1019,13 +1021,13 @@
       <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1061,63 +1063,63 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5">
         <v>10156</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>10152</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
     </row>

--- a/playwright/report/test-mapping.xlsx
+++ b/playwright/report/test-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\Blue Reply\myel-copilot\playwright\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\test-automation\playwright\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32F8E2-A004-408F-BC2D-7F15BC527F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B321BB-761D-4808-B002-08DE143C927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1404" yWindow="1476" windowWidth="20040" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>CORE ID</t>
   </si>
@@ -248,6 +248,33 @@
   </si>
   <si>
     <t>0001026276</t>
+  </si>
+  <si>
+    <t>AT017</t>
+  </si>
+  <si>
+    <t>ID027</t>
+  </si>
+  <si>
+    <t>Check AFA PDP and add to cart</t>
+  </si>
+  <si>
+    <t>AT018</t>
+  </si>
+  <si>
+    <t>ID031</t>
+  </si>
+  <si>
+    <t>Process flow Standard warranty</t>
+  </si>
+  <si>
+    <t>AT019</t>
+  </si>
+  <si>
+    <t>ID034</t>
+  </si>
+  <si>
+    <t>Verify complete job process - non multifocal (single vision)</t>
   </si>
 </sst>
 </file>
@@ -374,11 +401,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="NRT"/>
     </sheetNames>
@@ -672,22 +696,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5"/>
+    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -730,7 +754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -750,7 +774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -770,7 +794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -790,7 +814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -810,7 +834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -830,7 +854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -850,7 +874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -870,7 +894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -890,7 +914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -910,7 +934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -930,7 +954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -950,7 +974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -970,7 +994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -991,7 +1015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1011,30 +1035,90 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attenzione" error="Il valore dell'impersonificazione può essere Y o N" sqref="E2:E1048576" xr:uid="{4FB0E54F-D89C-4B7D-8575-36821A8E0BBA}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attenzione" error="Il valore dell'impersonificazione può essere Y o N" sqref="E2:E16 E18:E1048576" xr:uid="{7C7DC2A7-95EE-4543-AEBA-6ABACA4CC325}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1042,12 +1126,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCFFFC4C-7C99-4C72-801D-FD671DCA64DA}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03ADD8FD-AC04-4E33-B177-CD5DAD6A3B87}">
           <x14:formula1>
             <xm:f>Stores!B1:B150</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G17 G21:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F313B0FF-EA9F-4BBD-AA60-7756752CFFC9}">
+          <x14:formula1>
+            <xm:f>Stores!B17:B166</xm:f>
+          </x14:formula1>
+          <xm:sqref>G18:G20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1063,16 +1153,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -1089,7 +1179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1106,7 +1196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>

--- a/playwright/report/test-mapping.xlsx
+++ b/playwright/report/test-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.biallo\Documents\MyT-EL\java\test-automation\playwright\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B321BB-761D-4808-B002-08DE143C927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91953DCA-548E-400F-8E94-93AE234DA4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="1476" windowWidth="20040" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42015" yWindow="2820" windowWidth="13830" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>CORE ID</t>
   </si>
@@ -275,6 +275,30 @@
   </si>
   <si>
     <t>Verify complete job process - non multifocal (single vision)</t>
+  </si>
+  <si>
+    <t>ID039</t>
+  </si>
+  <si>
+    <t>ID041</t>
+  </si>
+  <si>
+    <t>AT020</t>
+  </si>
+  <si>
+    <t>Leonardo link</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>user.0001026276.it</t>
+  </si>
+  <si>
+    <t>AT021</t>
+  </si>
+  <si>
+    <t>Search UPC</t>
   </si>
 </sst>
 </file>
@@ -696,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +731,7 @@
     <col min="1" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1115,10 +1139,50 @@
         <v>54</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attenzione" error="Il valore dell'impersonificazione può essere Y o N" sqref="E2:E16 E18:E1048576" xr:uid="{7C7DC2A7-95EE-4543-AEBA-6ABACA4CC325}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attenzione" error="Il valore dell'impersonificazione può essere Y o N" sqref="E2:E16 E18:E1048576" xr:uid="{71A8BB38-CD66-470B-B0A3-145431CB923C}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1126,18 +1190,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03ADD8FD-AC04-4E33-B177-CD5DAD6A3B87}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70F04EF4-DDE8-4976-A1BC-4447C35E890B}">
           <x14:formula1>
             <xm:f>Stores!B1:B150</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G17 G21:G1048576</xm:sqref>
+          <xm:sqref>G1048560:G1048576 G1:G17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F313B0FF-EA9F-4BBD-AA60-7756752CFFC9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D580679E-57CA-4672-912F-E13813ADA02A}">
+          <x14:formula1>
+            <xm:f>Stores!B39:B188</xm:f>
+          </x14:formula1>
+          <xm:sqref>G23:G1048559</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA54F7A7-DE6A-4EBD-9933-5ABB2C9641BD}">
           <x14:formula1>
             <xm:f>Stores!B17:B166</xm:f>
           </x14:formula1>
-          <xm:sqref>G18:G20</xm:sqref>
+          <xm:sqref>G18:G22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
